--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,7 +531,7 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H2">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I2">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J2">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.9636299999999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N2">
-        <v>2.89089</v>
+        <v>0.38615</v>
       </c>
       <c r="O2">
-        <v>0.004634280881909668</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P2">
-        <v>0.004636691828827674</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q2">
-        <v>36.40855701302999</v>
+        <v>4.726113962922223</v>
       </c>
       <c r="R2">
-        <v>327.67701311727</v>
+        <v>42.5350256663</v>
       </c>
       <c r="S2">
-        <v>0.003639033972391062</v>
+        <v>0.0004905046498908396</v>
       </c>
       <c r="T2">
-        <v>0.0036551418520663</v>
+        <v>0.0004939969843007744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H3">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I3">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J3">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>71.62512099999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N3">
-        <v>214.875363</v>
+        <v>2.89089</v>
       </c>
       <c r="O3">
-        <v>0.3444588990740914</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P3">
-        <v>0.344638101013349</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q3">
-        <v>2706.191485833434</v>
+        <v>35.38178323002001</v>
       </c>
       <c r="R3">
-        <v>24355.72337250091</v>
+        <v>318.43604907018</v>
       </c>
       <c r="S3">
-        <v>0.2704837423031874</v>
+        <v>0.003672135147799895</v>
       </c>
       <c r="T3">
-        <v>0.271681015977515</v>
+        <v>0.003698280310618324</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H4">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I4">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J4">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.324361</v>
+        <v>102.566826</v>
       </c>
       <c r="N4">
-        <v>0.648722</v>
+        <v>307.700478</v>
       </c>
       <c r="O4">
-        <v>0.001559914055329433</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P4">
-        <v>0.001040483725282092</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q4">
-        <v>12.25523900387433</v>
+        <v>3765.965364427404</v>
       </c>
       <c r="R4">
-        <v>73.53143402324599</v>
+        <v>33893.68827984663</v>
       </c>
       <c r="S4">
-        <v>0.001224910700495769</v>
+        <v>0.3908546296326142</v>
       </c>
       <c r="T4">
-        <v>0.0008202217768770705</v>
+        <v>0.3936374678231432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,51 +726,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.78271433333333</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H5">
-        <v>113.348143</v>
+        <v>110.151562</v>
       </c>
       <c r="I5">
-        <v>0.7852424281394679</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J5">
-        <v>0.7883081272171703</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>135.0220616666667</v>
+        <v>0.8471995</v>
       </c>
       <c r="N5">
-        <v>405.066185</v>
+        <v>1.694399</v>
       </c>
       <c r="O5">
-        <v>0.6493469059886695</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P5">
-        <v>0.6496847234325412</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q5">
-        <v>5101.499984649384</v>
+        <v>31.10678275020634</v>
       </c>
       <c r="R5">
-        <v>45913.49986184445</v>
+        <v>186.640696501238</v>
       </c>
       <c r="S5">
-        <v>0.5098947411633936</v>
+        <v>0.003228449779633776</v>
       </c>
       <c r="T5">
-        <v>0.5121517476107118</v>
+        <v>0.002167623970483615</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.270981</v>
+        <v>36.71718733333334</v>
       </c>
       <c r="H6">
-        <v>3.812943</v>
+        <v>110.151562</v>
       </c>
       <c r="I6">
-        <v>0.02641494196933943</v>
+        <v>0.728743057485239</v>
       </c>
       <c r="J6">
-        <v>0.02651806969185035</v>
+        <v>0.7328478088626956</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9636299999999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N6">
-        <v>2.89089</v>
+        <v>260.184174</v>
       </c>
       <c r="O6">
-        <v>0.004634280881909668</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P6">
-        <v>0.004636691828827674</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q6">
-        <v>1.22475542103</v>
+        <v>3184.410352642199</v>
       </c>
       <c r="R6">
-        <v>11.02279878927</v>
+        <v>28659.69317377979</v>
       </c>
       <c r="S6">
-        <v>0.000122414260565263</v>
+        <v>0.3304973382753004</v>
       </c>
       <c r="T6">
-        <v>0.0001229561170564853</v>
+        <v>0.3328504397741498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>3.812943</v>
       </c>
       <c r="I7">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J7">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>71.62512099999999</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N7">
-        <v>214.875363</v>
+        <v>0.38615</v>
       </c>
       <c r="O7">
-        <v>0.3444588990740914</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P7">
-        <v>0.344638101013349</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q7">
-        <v>91.03416791370098</v>
+        <v>0.1635964377166667</v>
       </c>
       <c r="R7">
-        <v>819.3075112233089</v>
+        <v>1.47236793945</v>
       </c>
       <c r="S7">
-        <v>0.009098861829864672</v>
+        <v>1.697902632800366E-05</v>
       </c>
       <c r="T7">
-        <v>0.009139137181138948</v>
+        <v>1.709991496362754E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>3.812943</v>
       </c>
       <c r="I8">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J8">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.324361</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N8">
-        <v>0.648722</v>
+        <v>2.89089</v>
       </c>
       <c r="O8">
-        <v>0.001559914055329433</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P8">
-        <v>0.001040483725282092</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q8">
-        <v>0.412256668141</v>
+        <v>1.22475542103</v>
       </c>
       <c r="R8">
-        <v>2.473540008846</v>
+        <v>11.02279878927</v>
       </c>
       <c r="S8">
-        <v>4.120503924868392E-05</v>
+        <v>0.0001271125143632332</v>
       </c>
       <c r="T8">
-        <v>2.759161994026658E-05</v>
+        <v>0.0001280175402543085</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.812943</v>
       </c>
       <c r="I9">
-        <v>0.02641494196933943</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J9">
-        <v>0.02651806969185035</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>135.0220616666667</v>
+        <v>102.566826</v>
       </c>
       <c r="N9">
-        <v>405.066185</v>
+        <v>307.700478</v>
       </c>
       <c r="O9">
-        <v>0.6493469059886695</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P9">
-        <v>0.6496847234325412</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q9">
-        <v>171.6104749591616</v>
+        <v>130.360487076306</v>
       </c>
       <c r="R9">
-        <v>1544.494274632455</v>
+        <v>1173.244383686754</v>
       </c>
       <c r="S9">
-        <v>0.01715246083966081</v>
+        <v>0.0135295986458664</v>
       </c>
       <c r="T9">
-        <v>0.01722838477371465</v>
+        <v>0.01362592776917661</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.189763</v>
+        <v>1.270981</v>
       </c>
       <c r="H10">
-        <v>9.569288999999999</v>
+        <v>3.812943</v>
       </c>
       <c r="I10">
-        <v>0.06629320543811909</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J10">
-        <v>0.06655202362150625</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.9636299999999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N10">
-        <v>2.89089</v>
+        <v>1.694399</v>
       </c>
       <c r="O10">
-        <v>0.004634280881909668</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P10">
-        <v>0.004636691828827674</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q10">
-        <v>3.073751319689999</v>
+        <v>1.0767744677095</v>
       </c>
       <c r="R10">
-        <v>27.66376187721</v>
+        <v>6.460646806256999</v>
       </c>
       <c r="S10">
-        <v>0.0003072213345623853</v>
+        <v>0.000111754157313776</v>
       </c>
       <c r="T10">
-        <v>0.0003085812241177844</v>
+        <v>7.503322236036657E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.189763</v>
+        <v>1.270981</v>
       </c>
       <c r="H11">
-        <v>9.569288999999999</v>
+        <v>3.812943</v>
       </c>
       <c r="I11">
-        <v>0.06629320543811909</v>
+        <v>0.02522574977045663</v>
       </c>
       <c r="J11">
-        <v>0.06655202362150625</v>
+        <v>0.0253678374789488</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>71.62512099999999</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N11">
-        <v>214.875363</v>
+        <v>260.184174</v>
       </c>
       <c r="O11">
-        <v>0.3444588990740914</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P11">
-        <v>0.344638101013349</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q11">
-        <v>228.467160836323</v>
+        <v>110.229713884898</v>
       </c>
       <c r="R11">
-        <v>2056.204447526907</v>
+        <v>992.0674249640819</v>
       </c>
       <c r="S11">
-        <v>0.02283528456130707</v>
+        <v>0.01144030542658522</v>
       </c>
       <c r="T11">
-        <v>0.02293636303951146</v>
+        <v>0.0115217590321939</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H12">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I12">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J12">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.324361</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N12">
-        <v>0.648722</v>
+        <v>0.38615</v>
       </c>
       <c r="O12">
-        <v>0.001559914055329433</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P12">
-        <v>0.001040483725282092</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q12">
-        <v>1.034634716443</v>
+        <v>0.9364983597555555</v>
       </c>
       <c r="R12">
-        <v>6.207808298658</v>
+        <v>8.428485237799999</v>
       </c>
       <c r="S12">
-        <v>0.0001034117029357636</v>
+        <v>9.71954556489826E-05</v>
       </c>
       <c r="T12">
-        <v>6.92462974627666E-05</v>
+        <v>9.788747566210127E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.189763</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H13">
-        <v>9.569288999999999</v>
+        <v>21.826972</v>
       </c>
       <c r="I13">
-        <v>0.06629320543811909</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J13">
-        <v>0.06655202362150625</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>135.0220616666667</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N13">
-        <v>405.066185</v>
+        <v>2.89089</v>
       </c>
       <c r="O13">
-        <v>0.6493469059886695</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P13">
-        <v>0.6496847234325412</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q13">
-        <v>430.6883764880516</v>
+        <v>7.01104167612</v>
       </c>
       <c r="R13">
-        <v>3876.195388392465</v>
+        <v>63.09937508508</v>
       </c>
       <c r="S13">
-        <v>0.04304728783931387</v>
+        <v>0.0007276482475232094</v>
       </c>
       <c r="T13">
-        <v>0.04323783306041424</v>
+        <v>0.0007328290159699909</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5613635</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H14">
-        <v>1.122727</v>
+        <v>21.826972</v>
       </c>
       <c r="I14">
-        <v>0.01166688115416775</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J14">
-        <v>0.007808286887824462</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,95 +1302,95 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.9636299999999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N14">
-        <v>2.89089</v>
+        <v>307.700478</v>
       </c>
       <c r="O14">
-        <v>0.004634280881909668</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P14">
-        <v>0.004636691828827674</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q14">
-        <v>0.5409467095049999</v>
+        <v>746.2410797436238</v>
       </c>
       <c r="R14">
-        <v>3.24568025703</v>
+        <v>6716.169717692615</v>
       </c>
       <c r="S14">
-        <v>5.406760428427178E-05</v>
+        <v>0.07744940609250224</v>
       </c>
       <c r="T14">
-        <v>3.620462000991795E-05</v>
+        <v>0.07800083659573204</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7.275657333333332</v>
+      </c>
+      <c r="H15">
+        <v>21.826972</v>
+      </c>
+      <c r="I15">
+        <v>0.1444033477339586</v>
+      </c>
+      <c r="J15">
+        <v>0.1452167206154317</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
         <v>0.5</v>
       </c>
-      <c r="G15">
-        <v>0.5613635</v>
-      </c>
-      <c r="H15">
-        <v>1.122727</v>
-      </c>
-      <c r="I15">
-        <v>0.01166688115416775</v>
-      </c>
-      <c r="J15">
-        <v>0.007808286887824462</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
       <c r="M15">
-        <v>71.62512099999999</v>
+        <v>0.8471995</v>
       </c>
       <c r="N15">
-        <v>214.875363</v>
+        <v>1.694399</v>
       </c>
       <c r="O15">
-        <v>0.3444588990740914</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P15">
-        <v>0.344638101013349</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q15">
-        <v>40.2077286124835</v>
+        <v>6.163933254971332</v>
       </c>
       <c r="R15">
-        <v>241.246371674901</v>
+        <v>36.983599529828</v>
       </c>
       <c r="S15">
-        <v>0.004018761037992886</v>
+        <v>0.0006397302195630471</v>
       </c>
       <c r="T15">
-        <v>0.002691033165187255</v>
+        <v>0.0004295233481144341</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5613635</v>
+        <v>7.275657333333332</v>
       </c>
       <c r="H16">
-        <v>1.122727</v>
+        <v>21.826972</v>
       </c>
       <c r="I16">
-        <v>0.01166688115416775</v>
+        <v>0.1444033477339586</v>
       </c>
       <c r="J16">
-        <v>0.007808286887824462</v>
+        <v>0.1452167206154317</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.324361</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N16">
-        <v>0.648722</v>
+        <v>260.184174</v>
       </c>
       <c r="O16">
-        <v>0.001559914055329433</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P16">
-        <v>0.001040483725282092</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q16">
-        <v>0.1820844262235</v>
+        <v>631.0036311934585</v>
       </c>
       <c r="R16">
-        <v>0.7283377048940001</v>
+        <v>5679.032680741127</v>
       </c>
       <c r="S16">
-        <v>1.819933189424435E-05</v>
+        <v>0.06548936771872113</v>
       </c>
       <c r="T16">
-        <v>8.124395429114907E-06</v>
+        <v>0.06595564417995319</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1470,51 +1470,51 @@
         <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.5613635</v>
+        <v>0.8466215</v>
       </c>
       <c r="H17">
-        <v>1.122727</v>
+        <v>1.693243</v>
       </c>
       <c r="I17">
-        <v>0.01166688115416775</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J17">
-        <v>0.007808286887824462</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>135.0220616666667</v>
+        <v>0.1287166666666667</v>
       </c>
       <c r="N17">
-        <v>405.066185</v>
+        <v>0.38615</v>
       </c>
       <c r="O17">
-        <v>0.6493469059886695</v>
+        <v>0.0006730831187380127</v>
       </c>
       <c r="P17">
-        <v>0.6496847234325412</v>
+        <v>0.0006740785444489584</v>
       </c>
       <c r="Q17">
-        <v>75.79645711441584</v>
+        <v>0.1089742974083333</v>
       </c>
       <c r="R17">
-        <v>454.778742686495</v>
+        <v>0.65384578445</v>
       </c>
       <c r="S17">
-        <v>0.007575853179996343</v>
+        <v>1.131001072270471E-05</v>
       </c>
       <c r="T17">
-        <v>0.005072924707198174</v>
+        <v>7.593691097075828E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>5.311165</v>
+        <v>0.8466215</v>
       </c>
       <c r="H18">
-        <v>15.933495</v>
+        <v>1.693243</v>
       </c>
       <c r="I18">
-        <v>0.1103825432989058</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J18">
-        <v>0.1108134925816486</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9636299999999999</v>
+        <v>0.9636300000000001</v>
       </c>
       <c r="N18">
         <v>2.89089</v>
       </c>
       <c r="O18">
-        <v>0.004634280881909668</v>
+        <v>0.005038998464660193</v>
       </c>
       <c r="P18">
-        <v>0.004636691828827674</v>
+        <v>0.005046450662597565</v>
       </c>
       <c r="Q18">
-        <v>5.117997928949999</v>
+        <v>0.8158298760450001</v>
       </c>
       <c r="R18">
-        <v>46.06198136055</v>
+        <v>4.89497925627</v>
       </c>
       <c r="S18">
-        <v>0.0005115437101066855</v>
+        <v>8.467175164614739E-05</v>
       </c>
       <c r="T18">
-        <v>0.0005138080155771863</v>
+        <v>5.684973625696114E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>5.311165</v>
+        <v>0.8466215</v>
       </c>
       <c r="H19">
-        <v>15.933495</v>
+        <v>1.693243</v>
       </c>
       <c r="I19">
-        <v>0.1103825432989058</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J19">
-        <v>0.1108134925816486</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.62512099999999</v>
+        <v>102.566826</v>
       </c>
       <c r="N19">
-        <v>214.875363</v>
+        <v>307.700478</v>
       </c>
       <c r="O19">
-        <v>0.3444588990740914</v>
+        <v>0.5363407933948394</v>
       </c>
       <c r="P19">
-        <v>0.344638101013349</v>
+        <v>0.5371339902537582</v>
       </c>
       <c r="Q19">
-        <v>380.4128357759649</v>
+        <v>86.83528007835899</v>
       </c>
       <c r="R19">
-        <v>3423.715521983685</v>
+        <v>521.0116804701539</v>
       </c>
       <c r="S19">
-        <v>0.03802224934173933</v>
+        <v>0.009012289798164867</v>
       </c>
       <c r="T19">
-        <v>0.03819055164999622</v>
+        <v>0.006050970815368578</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>5.311165</v>
+        <v>0.8466215</v>
       </c>
       <c r="H20">
-        <v>15.933495</v>
+        <v>1.693243</v>
       </c>
       <c r="I20">
-        <v>0.1103825432989058</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J20">
-        <v>0.1108134925816486</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1674,33 +1674,33 @@
         <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.324361</v>
+        <v>0.8471995</v>
       </c>
       <c r="N20">
-        <v>0.648722</v>
+        <v>1.694399</v>
       </c>
       <c r="O20">
-        <v>0.001559914055329433</v>
+        <v>0.004430161970632797</v>
       </c>
       <c r="P20">
-        <v>0.001040483725282092</v>
+        <v>0.002957809171658088</v>
       </c>
       <c r="Q20">
-        <v>1.722734790565</v>
+        <v>0.71725731148925</v>
       </c>
       <c r="R20">
-        <v>10.33640874339</v>
+        <v>2.869029245957</v>
       </c>
       <c r="S20">
-        <v>0.000172187280754973</v>
+        <v>7.444129557894652E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001152996355728732</v>
+        <v>3.33205816423519E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
-        <v>5.311165</v>
+        <v>0.8466215</v>
       </c>
       <c r="H21">
-        <v>15.933495</v>
+        <v>1.693243</v>
       </c>
       <c r="I21">
-        <v>0.1103825432989058</v>
+        <v>0.01680328982832053</v>
       </c>
       <c r="J21">
-        <v>0.1108134925816486</v>
+        <v>0.0112652912032432</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>135.0220616666667</v>
+        <v>86.72805799999999</v>
       </c>
       <c r="N21">
-        <v>405.066185</v>
+        <v>260.184174</v>
       </c>
       <c r="O21">
-        <v>0.6493469059886695</v>
+        <v>0.4535169630511297</v>
       </c>
       <c r="P21">
-        <v>0.6496847234325412</v>
+        <v>0.4541876713675373</v>
       </c>
       <c r="Q21">
-        <v>717.1244481518416</v>
+        <v>73.425838556047</v>
       </c>
       <c r="R21">
-        <v>6454.120033366576</v>
+        <v>440.555031336282</v>
       </c>
       <c r="S21">
-        <v>0.07167656296630485</v>
+        <v>0.007620576972207864</v>
       </c>
       <c r="T21">
-        <v>0.07199383328050235</v>
+        <v>0.005116556378878229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.273823333333334</v>
+      </c>
+      <c r="H22">
+        <v>12.82147</v>
+      </c>
+      <c r="I22">
+        <v>0.08482455518202518</v>
+      </c>
+      <c r="J22">
+        <v>0.08530234183968073</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.1287166666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.38615</v>
+      </c>
+      <c r="O22">
+        <v>0.0006730831187380127</v>
+      </c>
+      <c r="P22">
+        <v>0.0006740785444489584</v>
+      </c>
+      <c r="Q22">
+        <v>0.5501122933888889</v>
+      </c>
+      <c r="R22">
+        <v>4.9510106405</v>
+      </c>
+      <c r="S22">
+        <v>5.709397614748217E-05</v>
+      </c>
+      <c r="T22">
+        <v>5.750047842537947E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.273823333333334</v>
+      </c>
+      <c r="H23">
+        <v>12.82147</v>
+      </c>
+      <c r="I23">
+        <v>0.08482455518202518</v>
+      </c>
+      <c r="J23">
+        <v>0.08530234183968073</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.9636300000000001</v>
+      </c>
+      <c r="N23">
+        <v>2.89089</v>
+      </c>
+      <c r="O23">
+        <v>0.005038998464660193</v>
+      </c>
+      <c r="P23">
+        <v>0.005046450662597565</v>
+      </c>
+      <c r="Q23">
+        <v>4.118384378700001</v>
+      </c>
+      <c r="R23">
+        <v>37.0654594083</v>
+      </c>
+      <c r="S23">
+        <v>0.0004274308033277087</v>
+      </c>
+      <c r="T23">
+        <v>0.0004304740594979808</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.273823333333334</v>
+      </c>
+      <c r="H24">
+        <v>12.82147</v>
+      </c>
+      <c r="I24">
+        <v>0.08482455518202518</v>
+      </c>
+      <c r="J24">
+        <v>0.08530234183968073</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>102.566826</v>
+      </c>
+      <c r="N24">
+        <v>307.700478</v>
+      </c>
+      <c r="O24">
+        <v>0.5363407933948394</v>
+      </c>
+      <c r="P24">
+        <v>0.5371339902537582</v>
+      </c>
+      <c r="Q24">
+        <v>438.35249418474</v>
+      </c>
+      <c r="R24">
+        <v>3945.17244766266</v>
+      </c>
+      <c r="S24">
+        <v>0.04549486922569172</v>
+      </c>
+      <c r="T24">
+        <v>0.04581878725033782</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.273823333333334</v>
+      </c>
+      <c r="H25">
+        <v>12.82147</v>
+      </c>
+      <c r="I25">
+        <v>0.08482455518202518</v>
+      </c>
+      <c r="J25">
+        <v>0.08530234183968073</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.5</v>
+      </c>
+      <c r="M25">
+        <v>0.8471995</v>
+      </c>
+      <c r="N25">
+        <v>1.694399</v>
+      </c>
+      <c r="O25">
+        <v>0.004430161970632797</v>
+      </c>
+      <c r="P25">
+        <v>0.002957809171658088</v>
+      </c>
+      <c r="Q25">
+        <v>3.620780991088334</v>
+      </c>
+      <c r="R25">
+        <v>21.72468594653</v>
+      </c>
+      <c r="S25">
+        <v>0.0003757865185432512</v>
+      </c>
+      <c r="T25">
+        <v>0.0002523080490573211</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.273823333333334</v>
+      </c>
+      <c r="H26">
+        <v>12.82147</v>
+      </c>
+      <c r="I26">
+        <v>0.08482455518202518</v>
+      </c>
+      <c r="J26">
+        <v>0.08530234183968073</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>86.72805799999999</v>
+      </c>
+      <c r="N26">
+        <v>260.184174</v>
+      </c>
+      <c r="O26">
+        <v>0.4535169630511297</v>
+      </c>
+      <c r="P26">
+        <v>0.4541876713675373</v>
+      </c>
+      <c r="Q26">
+        <v>370.6603979350866</v>
+      </c>
+      <c r="R26">
+        <v>3335.94358141578</v>
+      </c>
+      <c r="S26">
+        <v>0.03846937465831502</v>
+      </c>
+      <c r="T26">
+        <v>0.03874327200236224</v>
       </c>
     </row>
   </sheetData>
